--- a/biology/Zoologie/Columbinae/Columbinae.xlsx
+++ b/biology/Zoologie/Columbinae/Columbinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Columbinae (ou colombinés en français) sont une sous-famille qui regroupe plusieurs genres d'oiseaux appelés, dans le langage vernaculaire : pigeons, tourterelles, tourtelettes, colombes, colombines, phasianelles, géopélies, gallicolombes, etc.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pigeon fait partie des espèces qui semblent avoir coévolué avec l'Homme depuis la préhistoire. Il est difficile de connaître la densité de la population colombine préhistorique, mais on sait que le cousin nord américain du pigeon européen, le pigeon migrateur américain a constitué jusqu'au XVIIIe siècle d'immenses populations en Amérique du Nord où il n'était que peu chassé par les amérindiens. Ses vols obscurcissaient le soleil, selon les chroniqueurs. Lorsque sa chasse se développa, facilement puisqu'il n'était que peu craintif de l'Homme, ce sont des trains entiers de cadavres de pigeons sauvages qui étaient alors envoyés dans les grandes villes, jusqu'à son extinction relativement brutale à la fin du XIXe siècle.
 Le pigeon biset est domestiqué depuis la préhistoire. Depuis l'antiquité, les militaires l'utilisaient pour transmettre des messages. Il servaient également à se nourrir.
@@ -543,7 +557,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caloenas (f.) G.R. Gray, 1840
 Chalcophaps (f.) Gould, 1843
@@ -601,7 +617,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
